--- a/data for python CAT not refined.xlsx
+++ b/data for python CAT not refined.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/PycharmProjects/new code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48966312-4F88-D543-92AE-7E9EEB4EB669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47877FA2-DA05-3647-80FA-48A3F80618B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="3200" windowWidth="26440" windowHeight="14800" xr2:uid="{33B11A89-228C-F945-8F16-A5371C03C918}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{33B11A89-228C-F945-8F16-A5371C03C918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -604,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DF1669-59BA-F048-8085-786990108C48}">
   <dimension ref="A1:AH397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE396"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,8 +782,8 @@
       <c r="V2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>44</v>
+      <c r="W2" s="3">
+        <v>0</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>44</v>
@@ -885,8 +886,8 @@
       <c r="V3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>43</v>
+      <c r="W3" s="3">
+        <v>1</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>44</v>
@@ -989,8 +990,8 @@
       <c r="V4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>43</v>
+      <c r="W4" s="3">
+        <v>1</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>44</v>
@@ -1093,8 +1094,8 @@
       <c r="V5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>43</v>
+      <c r="W5" s="3">
+        <v>1</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>43</v>
@@ -1197,8 +1198,8 @@
       <c r="V6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>44</v>
+      <c r="W6" s="3">
+        <v>0</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>44</v>
@@ -1301,8 +1302,8 @@
       <c r="V7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>43</v>
+      <c r="W7" s="3">
+        <v>1</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>44</v>
@@ -1405,8 +1406,8 @@
       <c r="V8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>43</v>
+      <c r="W8" s="3">
+        <v>1</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>44</v>
@@ -1509,8 +1510,8 @@
       <c r="V9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>44</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>44</v>
@@ -1613,8 +1614,8 @@
       <c r="V10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>43</v>
+      <c r="W10" s="3">
+        <v>1</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>44</v>
@@ -1717,8 +1718,8 @@
       <c r="V11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>43</v>
+      <c r="W11" s="3">
+        <v>1</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>44</v>
@@ -1821,8 +1822,8 @@
       <c r="V12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>43</v>
+      <c r="W12" s="3">
+        <v>1</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>44</v>
@@ -1925,8 +1926,8 @@
       <c r="V13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>43</v>
+      <c r="W13" s="3">
+        <v>1</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>44</v>
@@ -2029,8 +2030,8 @@
       <c r="V14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>43</v>
+      <c r="W14" s="3">
+        <v>1</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>44</v>
@@ -2133,8 +2134,8 @@
       <c r="V15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>43</v>
+      <c r="W15" s="3">
+        <v>1</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>44</v>
@@ -2237,8 +2238,8 @@
       <c r="V16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>43</v>
+      <c r="W16" s="3">
+        <v>1</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>43</v>
@@ -2341,8 +2342,8 @@
       <c r="V17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>43</v>
+      <c r="W17" s="3">
+        <v>1</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>44</v>
@@ -2445,8 +2446,8 @@
       <c r="V18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>43</v>
+      <c r="W18" s="3">
+        <v>1</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>44</v>
@@ -2549,8 +2550,8 @@
       <c r="V19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>44</v>
+      <c r="W19" s="3">
+        <v>0</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>44</v>
@@ -2653,8 +2654,8 @@
       <c r="V20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>43</v>
+      <c r="W20" s="3">
+        <v>1</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>44</v>
@@ -2757,8 +2758,8 @@
       <c r="V21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>43</v>
+      <c r="W21" s="3">
+        <v>1</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>44</v>
@@ -2861,8 +2862,8 @@
       <c r="V22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>43</v>
+      <c r="W22" s="3">
+        <v>1</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>44</v>
@@ -2965,8 +2966,8 @@
       <c r="V23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>43</v>
+      <c r="W23" s="3">
+        <v>1</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>44</v>
@@ -3069,8 +3070,8 @@
       <c r="V24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>43</v>
+      <c r="W24" s="3">
+        <v>1</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>44</v>
@@ -3173,8 +3174,8 @@
       <c r="V25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>43</v>
+      <c r="W25" s="3">
+        <v>1</v>
       </c>
       <c r="X25" s="3" t="s">
         <v>44</v>
@@ -3277,8 +3278,8 @@
       <c r="V26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>43</v>
+      <c r="W26" s="3">
+        <v>1</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>44</v>
@@ -3381,8 +3382,8 @@
       <c r="V27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>43</v>
+      <c r="W27" s="3">
+        <v>1</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>44</v>
@@ -3485,8 +3486,8 @@
       <c r="V28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>43</v>
+      <c r="W28" s="3">
+        <v>1</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>44</v>
@@ -3589,8 +3590,8 @@
       <c r="V29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>43</v>
+      <c r="W29" s="3">
+        <v>1</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>44</v>
@@ -3693,8 +3694,8 @@
       <c r="V30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W30" s="3" t="s">
-        <v>43</v>
+      <c r="W30" s="3">
+        <v>1</v>
       </c>
       <c r="X30" s="3" t="s">
         <v>44</v>
@@ -3797,8 +3798,8 @@
       <c r="V31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="3" t="s">
-        <v>43</v>
+      <c r="W31" s="3">
+        <v>1</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>43</v>
@@ -3901,8 +3902,8 @@
       <c r="V32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>43</v>
+      <c r="W32" s="3">
+        <v>1</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>44</v>
@@ -4005,8 +4006,8 @@
       <c r="V33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>43</v>
+      <c r="W33" s="3">
+        <v>1</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>44</v>
@@ -4109,8 +4110,8 @@
       <c r="V34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W34" s="3" t="s">
-        <v>43</v>
+      <c r="W34" s="3">
+        <v>1</v>
       </c>
       <c r="X34" s="3" t="s">
         <v>43</v>
@@ -4213,8 +4214,8 @@
       <c r="V35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>43</v>
+      <c r="W35" s="3">
+        <v>1</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>44</v>
@@ -4317,8 +4318,8 @@
       <c r="V36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>43</v>
+      <c r="W36" s="3">
+        <v>1</v>
       </c>
       <c r="X36" s="3" t="s">
         <v>44</v>
@@ -4421,8 +4422,8 @@
       <c r="V37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>44</v>
+      <c r="W37" s="3">
+        <v>0</v>
       </c>
       <c r="X37" s="3" t="s">
         <v>44</v>
@@ -4525,8 +4526,8 @@
       <c r="V38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W38" s="3" t="s">
-        <v>43</v>
+      <c r="W38" s="3">
+        <v>1</v>
       </c>
       <c r="X38" s="3" t="s">
         <v>44</v>
@@ -4629,8 +4630,8 @@
       <c r="V39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W39" s="3" t="s">
-        <v>43</v>
+      <c r="W39" s="3">
+        <v>1</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>43</v>
@@ -4733,8 +4734,8 @@
       <c r="V40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>43</v>
+      <c r="W40" s="3">
+        <v>1</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>44</v>
@@ -4837,8 +4838,8 @@
       <c r="V41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>44</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>44</v>
@@ -4941,8 +4942,8 @@
       <c r="V42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>43</v>
+      <c r="W42" s="3">
+        <v>1</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>43</v>
@@ -5045,8 +5046,8 @@
       <c r="V43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>43</v>
+      <c r="W43" s="3">
+        <v>1</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>43</v>
@@ -5149,8 +5150,8 @@
       <c r="V44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>43</v>
+      <c r="W44" s="3">
+        <v>1</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>44</v>
@@ -5253,8 +5254,8 @@
       <c r="V45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>43</v>
+      <c r="W45" s="3">
+        <v>1</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>44</v>
@@ -5357,8 +5358,8 @@
       <c r="V46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>43</v>
+      <c r="W46" s="3">
+        <v>1</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>44</v>
@@ -5461,8 +5462,8 @@
       <c r="V47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>43</v>
+      <c r="W47" s="3">
+        <v>1</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>43</v>
@@ -5565,8 +5566,8 @@
       <c r="V48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>43</v>
+      <c r="W48" s="3">
+        <v>1</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>44</v>
@@ -5669,8 +5670,8 @@
       <c r="V49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>43</v>
+      <c r="W49" s="3">
+        <v>1</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>44</v>
@@ -5773,8 +5774,8 @@
       <c r="V50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>44</v>
+      <c r="W50" s="3">
+        <v>0</v>
       </c>
       <c r="X50" s="3" t="s">
         <v>44</v>
@@ -5877,8 +5878,8 @@
       <c r="V51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="3" t="s">
-        <v>43</v>
+      <c r="W51" s="3">
+        <v>1</v>
       </c>
       <c r="X51" s="3" t="s">
         <v>44</v>
@@ -5981,8 +5982,8 @@
       <c r="V52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>43</v>
+      <c r="W52" s="3">
+        <v>1</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>44</v>
@@ -6085,8 +6086,8 @@
       <c r="V53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="3" t="s">
-        <v>43</v>
+      <c r="W53" s="3">
+        <v>1</v>
       </c>
       <c r="X53" s="3" t="s">
         <v>44</v>
@@ -6189,8 +6190,8 @@
       <c r="V54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>44</v>
+      <c r="W54" s="3">
+        <v>0</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>44</v>
@@ -6293,8 +6294,8 @@
       <c r="V55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="3" t="s">
-        <v>43</v>
+      <c r="W55" s="3">
+        <v>1</v>
       </c>
       <c r="X55" s="3" t="s">
         <v>44</v>
@@ -6397,8 +6398,8 @@
       <c r="V56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W56" s="3" t="s">
-        <v>43</v>
+      <c r="W56" s="3">
+        <v>1</v>
       </c>
       <c r="X56" s="3" t="s">
         <v>44</v>
@@ -6501,8 +6502,8 @@
       <c r="V57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>43</v>
+      <c r="W57" s="3">
+        <v>1</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>43</v>
@@ -6605,8 +6606,8 @@
       <c r="V58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>43</v>
+      <c r="W58" s="3">
+        <v>1</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>44</v>
@@ -6709,8 +6710,8 @@
       <c r="V59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>44</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>44</v>
@@ -6813,8 +6814,8 @@
       <c r="V60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>43</v>
+      <c r="W60" s="3">
+        <v>1</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>44</v>
@@ -6917,8 +6918,8 @@
       <c r="V61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>43</v>
+      <c r="W61" s="3">
+        <v>1</v>
       </c>
       <c r="X61" s="3" t="s">
         <v>44</v>
@@ -7021,8 +7022,8 @@
       <c r="V62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>44</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>44</v>
@@ -7125,8 +7126,8 @@
       <c r="V63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W63" s="3" t="s">
-        <v>43</v>
+      <c r="W63" s="3">
+        <v>1</v>
       </c>
       <c r="X63" s="3" t="s">
         <v>43</v>
@@ -7229,8 +7230,8 @@
       <c r="V64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W64" s="3" t="s">
-        <v>43</v>
+      <c r="W64" s="3">
+        <v>1</v>
       </c>
       <c r="X64" s="3" t="s">
         <v>44</v>
@@ -7333,8 +7334,8 @@
       <c r="V65" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W65" s="3" t="s">
-        <v>43</v>
+      <c r="W65" s="3">
+        <v>1</v>
       </c>
       <c r="X65" s="3" t="s">
         <v>44</v>
@@ -7437,8 +7438,8 @@
       <c r="V66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>43</v>
+      <c r="W66" s="3">
+        <v>1</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>43</v>
@@ -7541,8 +7542,8 @@
       <c r="V67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="3" t="s">
-        <v>43</v>
+      <c r="W67" s="3">
+        <v>1</v>
       </c>
       <c r="X67" s="3" t="s">
         <v>44</v>
@@ -7645,8 +7646,8 @@
       <c r="V68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W68" s="3" t="s">
-        <v>43</v>
+      <c r="W68" s="3">
+        <v>1</v>
       </c>
       <c r="X68" s="3" t="s">
         <v>43</v>
@@ -7749,8 +7750,8 @@
       <c r="V69" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="3" t="s">
-        <v>43</v>
+      <c r="W69" s="3">
+        <v>1</v>
       </c>
       <c r="X69" s="3" t="s">
         <v>44</v>
@@ -7853,8 +7854,8 @@
       <c r="V70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="3" t="s">
-        <v>43</v>
+      <c r="W70" s="3">
+        <v>1</v>
       </c>
       <c r="X70" s="3" t="s">
         <v>44</v>
@@ -7957,8 +7958,8 @@
       <c r="V71" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="3" t="s">
-        <v>43</v>
+      <c r="W71" s="3">
+        <v>1</v>
       </c>
       <c r="X71" s="3" t="s">
         <v>44</v>
@@ -8061,8 +8062,8 @@
       <c r="V72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>43</v>
+      <c r="W72" s="3">
+        <v>1</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>44</v>
@@ -8165,8 +8166,8 @@
       <c r="V73" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W73" s="3" t="s">
-        <v>43</v>
+      <c r="W73" s="3">
+        <v>1</v>
       </c>
       <c r="X73" s="3" t="s">
         <v>44</v>
@@ -8269,8 +8270,8 @@
       <c r="V74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W74" s="3" t="s">
-        <v>43</v>
+      <c r="W74" s="3">
+        <v>1</v>
       </c>
       <c r="X74" s="3" t="s">
         <v>43</v>
@@ -8373,8 +8374,8 @@
       <c r="V75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W75" s="3" t="s">
-        <v>44</v>
+      <c r="W75" s="3">
+        <v>0</v>
       </c>
       <c r="X75" s="3" t="s">
         <v>44</v>
@@ -8477,8 +8478,8 @@
       <c r="V76" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>43</v>
+      <c r="W76" s="3">
+        <v>1</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>44</v>
@@ -8581,8 +8582,8 @@
       <c r="V77" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="3" t="s">
-        <v>43</v>
+      <c r="W77" s="3">
+        <v>1</v>
       </c>
       <c r="X77" s="3" t="s">
         <v>44</v>
@@ -8685,8 +8686,8 @@
       <c r="V78" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W78" s="3" t="s">
-        <v>43</v>
+      <c r="W78" s="3">
+        <v>1</v>
       </c>
       <c r="X78" s="3" t="s">
         <v>44</v>
@@ -8789,8 +8790,8 @@
       <c r="V79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W79" s="3" t="s">
-        <v>43</v>
+      <c r="W79" s="3">
+        <v>1</v>
       </c>
       <c r="X79" s="3" t="s">
         <v>43</v>
@@ -8893,8 +8894,8 @@
       <c r="V80" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W80" s="3" t="s">
-        <v>43</v>
+      <c r="W80" s="3">
+        <v>1</v>
       </c>
       <c r="X80" s="3" t="s">
         <v>44</v>
@@ -8997,8 +8998,8 @@
       <c r="V81" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>43</v>
+      <c r="W81" s="3">
+        <v>1</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>44</v>
@@ -9101,8 +9102,8 @@
       <c r="V82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="3" t="s">
-        <v>43</v>
+      <c r="W82" s="3">
+        <v>1</v>
       </c>
       <c r="X82" s="3" t="s">
         <v>43</v>
@@ -9205,8 +9206,8 @@
       <c r="V83" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>43</v>
+      <c r="W83" s="3">
+        <v>1</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>44</v>
@@ -9309,8 +9310,8 @@
       <c r="V84" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W84" s="3" t="s">
-        <v>43</v>
+      <c r="W84" s="3">
+        <v>1</v>
       </c>
       <c r="X84" s="3" t="s">
         <v>44</v>
@@ -9413,8 +9414,8 @@
       <c r="V85" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W85" s="3" t="s">
-        <v>43</v>
+      <c r="W85" s="3">
+        <v>1</v>
       </c>
       <c r="X85" s="3" t="s">
         <v>44</v>
@@ -9517,8 +9518,8 @@
       <c r="V86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="3" t="s">
-        <v>43</v>
+      <c r="W86" s="3">
+        <v>1</v>
       </c>
       <c r="X86" s="3" t="s">
         <v>44</v>
@@ -9621,8 +9622,8 @@
       <c r="V87" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W87" s="3" t="s">
-        <v>43</v>
+      <c r="W87" s="3">
+        <v>1</v>
       </c>
       <c r="X87" s="3" t="s">
         <v>43</v>
@@ -9725,8 +9726,8 @@
       <c r="V88" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W88" s="3" t="s">
-        <v>44</v>
+      <c r="W88" s="3">
+        <v>0</v>
       </c>
       <c r="X88" s="3" t="s">
         <v>44</v>
@@ -9829,8 +9830,8 @@
       <c r="V89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>43</v>
+      <c r="W89" s="3">
+        <v>1</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>44</v>
@@ -9933,8 +9934,8 @@
       <c r="V90" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="3" t="s">
-        <v>43</v>
+      <c r="W90" s="3">
+        <v>1</v>
       </c>
       <c r="X90" s="3" t="s">
         <v>44</v>
@@ -10037,8 +10038,8 @@
       <c r="V91" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>44</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>44</v>
@@ -10141,8 +10142,8 @@
       <c r="V92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="3" t="s">
-        <v>43</v>
+      <c r="W92" s="3">
+        <v>1</v>
       </c>
       <c r="X92" s="3" t="s">
         <v>43</v>
@@ -10245,8 +10246,8 @@
       <c r="V93" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W93" s="3" t="s">
-        <v>43</v>
+      <c r="W93" s="3">
+        <v>1</v>
       </c>
       <c r="X93" s="3" t="s">
         <v>44</v>
@@ -10349,8 +10350,8 @@
       <c r="V94" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>44</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>44</v>
@@ -10453,8 +10454,8 @@
       <c r="V95" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W95" s="3" t="s">
-        <v>43</v>
+      <c r="W95" s="3">
+        <v>1</v>
       </c>
       <c r="X95" s="3" t="s">
         <v>44</v>
@@ -10557,8 +10558,8 @@
       <c r="V96" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W96" s="3" t="s">
-        <v>43</v>
+      <c r="W96" s="3">
+        <v>1</v>
       </c>
       <c r="X96" s="3" t="s">
         <v>44</v>
@@ -10661,8 +10662,8 @@
       <c r="V97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W97" s="3" t="s">
-        <v>43</v>
+      <c r="W97" s="3">
+        <v>1</v>
       </c>
       <c r="X97" s="3" t="s">
         <v>44</v>
@@ -10765,8 +10766,8 @@
       <c r="V98" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W98" s="3" t="s">
-        <v>43</v>
+      <c r="W98" s="3">
+        <v>1</v>
       </c>
       <c r="X98" s="3" t="s">
         <v>44</v>
@@ -10869,8 +10870,8 @@
       <c r="V99" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W99" s="3" t="s">
-        <v>44</v>
+      <c r="W99" s="3">
+        <v>0</v>
       </c>
       <c r="X99" s="3" t="s">
         <v>43</v>
@@ -10973,8 +10974,8 @@
       <c r="V100" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>43</v>
+      <c r="W100" s="3">
+        <v>1</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>44</v>
@@ -11077,8 +11078,8 @@
       <c r="V101" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>43</v>
+      <c r="W101" s="3">
+        <v>1</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>44</v>
@@ -11181,8 +11182,8 @@
       <c r="V102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>43</v>
+      <c r="W102" s="3">
+        <v>1</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>44</v>
@@ -11285,8 +11286,8 @@
       <c r="V103" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W103" s="3" t="s">
-        <v>43</v>
+      <c r="W103" s="3">
+        <v>1</v>
       </c>
       <c r="X103" s="3" t="s">
         <v>43</v>
@@ -11389,8 +11390,8 @@
       <c r="V104" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W104" s="3" t="s">
-        <v>43</v>
+      <c r="W104" s="3">
+        <v>1</v>
       </c>
       <c r="X104" s="3" t="s">
         <v>44</v>
@@ -11493,8 +11494,8 @@
       <c r="V105" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W105" s="3" t="s">
-        <v>43</v>
+      <c r="W105" s="3">
+        <v>1</v>
       </c>
       <c r="X105" s="3" t="s">
         <v>44</v>
@@ -11597,8 +11598,8 @@
       <c r="V106" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W106" s="3" t="s">
-        <v>43</v>
+      <c r="W106" s="3">
+        <v>1</v>
       </c>
       <c r="X106" s="3" t="s">
         <v>44</v>
@@ -11701,8 +11702,8 @@
       <c r="V107" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W107" s="3" t="s">
-        <v>44</v>
+      <c r="W107" s="3">
+        <v>0</v>
       </c>
       <c r="X107" s="3" t="s">
         <v>44</v>
@@ -11805,8 +11806,8 @@
       <c r="V108" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W108" s="3" t="s">
-        <v>43</v>
+      <c r="W108" s="3">
+        <v>1</v>
       </c>
       <c r="X108" s="3" t="s">
         <v>44</v>
@@ -11909,8 +11910,8 @@
       <c r="V109" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W109" s="3" t="s">
-        <v>43</v>
+      <c r="W109" s="3">
+        <v>1</v>
       </c>
       <c r="X109" s="3" t="s">
         <v>44</v>
@@ -12013,8 +12014,8 @@
       <c r="V110" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W110" s="3" t="s">
-        <v>43</v>
+      <c r="W110" s="3">
+        <v>1</v>
       </c>
       <c r="X110" s="3" t="s">
         <v>43</v>
@@ -12117,8 +12118,8 @@
       <c r="V111" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W111" s="3" t="s">
-        <v>43</v>
+      <c r="W111" s="3">
+        <v>1</v>
       </c>
       <c r="X111" s="3" t="s">
         <v>43</v>
@@ -12221,8 +12222,8 @@
       <c r="V112" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W112" s="3" t="s">
-        <v>43</v>
+      <c r="W112" s="3">
+        <v>1</v>
       </c>
       <c r="X112" s="3" t="s">
         <v>44</v>
@@ -12325,8 +12326,8 @@
       <c r="V113" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W113" s="3" t="s">
-        <v>43</v>
+      <c r="W113" s="3">
+        <v>1</v>
       </c>
       <c r="X113" s="3" t="s">
         <v>44</v>
@@ -12429,8 +12430,8 @@
       <c r="V114" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W114" s="3" t="s">
-        <v>43</v>
+      <c r="W114" s="3">
+        <v>1</v>
       </c>
       <c r="X114" s="3" t="s">
         <v>44</v>
@@ -12533,8 +12534,8 @@
       <c r="V115" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W115" s="3" t="s">
-        <v>43</v>
+      <c r="W115" s="3">
+        <v>1</v>
       </c>
       <c r="X115" s="3" t="s">
         <v>44</v>
@@ -12637,8 +12638,8 @@
       <c r="V116" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W116" s="3" t="s">
-        <v>43</v>
+      <c r="W116" s="3">
+        <v>1</v>
       </c>
       <c r="X116" s="3" t="s">
         <v>43</v>
@@ -12741,8 +12742,8 @@
       <c r="V117" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W117" s="3" t="s">
-        <v>43</v>
+      <c r="W117" s="3">
+        <v>1</v>
       </c>
       <c r="X117" s="3" t="s">
         <v>44</v>
@@ -12845,8 +12846,8 @@
       <c r="V118" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W118" s="3" t="s">
-        <v>44</v>
+      <c r="W118" s="3">
+        <v>0</v>
       </c>
       <c r="X118" s="3" t="s">
         <v>44</v>
@@ -12949,8 +12950,8 @@
       <c r="V119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W119" s="3" t="s">
-        <v>43</v>
+      <c r="W119" s="3">
+        <v>1</v>
       </c>
       <c r="X119" s="3" t="s">
         <v>44</v>
@@ -13053,8 +13054,8 @@
       <c r="V120" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W120" s="3" t="s">
-        <v>43</v>
+      <c r="W120" s="3">
+        <v>1</v>
       </c>
       <c r="X120" s="3" t="s">
         <v>44</v>
@@ -13157,8 +13158,8 @@
       <c r="V121" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W121" s="3" t="s">
-        <v>43</v>
+      <c r="W121" s="3">
+        <v>1</v>
       </c>
       <c r="X121" s="3" t="s">
         <v>44</v>
@@ -13261,8 +13262,8 @@
       <c r="V122" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W122" s="3" t="s">
-        <v>43</v>
+      <c r="W122" s="3">
+        <v>1</v>
       </c>
       <c r="X122" s="3" t="s">
         <v>44</v>
@@ -13365,8 +13366,8 @@
       <c r="V123" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W123" s="3" t="s">
-        <v>43</v>
+      <c r="W123" s="3">
+        <v>1</v>
       </c>
       <c r="X123" s="3" t="s">
         <v>44</v>
@@ -13469,8 +13470,8 @@
       <c r="V124" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W124" s="3" t="s">
-        <v>43</v>
+      <c r="W124" s="3">
+        <v>1</v>
       </c>
       <c r="X124" s="3" t="s">
         <v>43</v>
@@ -13573,8 +13574,8 @@
       <c r="V125" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W125" s="3" t="s">
-        <v>43</v>
+      <c r="W125" s="3">
+        <v>1</v>
       </c>
       <c r="X125" s="3" t="s">
         <v>44</v>
@@ -13677,8 +13678,8 @@
       <c r="V126" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W126" s="3" t="s">
-        <v>43</v>
+      <c r="W126" s="3">
+        <v>1</v>
       </c>
       <c r="X126" s="3" t="s">
         <v>43</v>
@@ -13781,8 +13782,8 @@
       <c r="V127" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W127" s="3" t="s">
-        <v>43</v>
+      <c r="W127" s="3">
+        <v>1</v>
       </c>
       <c r="X127" s="3" t="s">
         <v>44</v>
@@ -13885,8 +13886,8 @@
       <c r="V128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W128" s="3" t="s">
-        <v>43</v>
+      <c r="W128" s="3">
+        <v>1</v>
       </c>
       <c r="X128" s="3" t="s">
         <v>43</v>
@@ -13989,8 +13990,8 @@
       <c r="V129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W129" s="3" t="s">
-        <v>44</v>
+      <c r="W129" s="3">
+        <v>0</v>
       </c>
       <c r="X129" s="3" t="s">
         <v>44</v>
@@ -14093,8 +14094,8 @@
       <c r="V130" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W130" s="3" t="s">
-        <v>43</v>
+      <c r="W130" s="3">
+        <v>1</v>
       </c>
       <c r="X130" s="3" t="s">
         <v>44</v>
@@ -14197,8 +14198,8 @@
       <c r="V131" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W131" s="3" t="s">
-        <v>43</v>
+      <c r="W131" s="3">
+        <v>1</v>
       </c>
       <c r="X131" s="3" t="s">
         <v>44</v>
@@ -14301,8 +14302,8 @@
       <c r="V132" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W132" s="3" t="s">
-        <v>43</v>
+      <c r="W132" s="3">
+        <v>1</v>
       </c>
       <c r="X132" s="3" t="s">
         <v>43</v>
@@ -14405,8 +14406,8 @@
       <c r="V133" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W133" s="3" t="s">
-        <v>43</v>
+      <c r="W133" s="3">
+        <v>1</v>
       </c>
       <c r="X133" s="3" t="s">
         <v>43</v>
@@ -14509,8 +14510,8 @@
       <c r="V134" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W134" s="3" t="s">
-        <v>43</v>
+      <c r="W134" s="3">
+        <v>1</v>
       </c>
       <c r="X134" s="3" t="s">
         <v>43</v>
@@ -14613,8 +14614,8 @@
       <c r="V135" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W135" s="3" t="s">
-        <v>43</v>
+      <c r="W135" s="3">
+        <v>1</v>
       </c>
       <c r="X135" s="3" t="s">
         <v>44</v>
@@ -14717,8 +14718,8 @@
       <c r="V136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W136" s="3" t="s">
-        <v>44</v>
+      <c r="W136" s="3">
+        <v>0</v>
       </c>
       <c r="X136" s="3" t="s">
         <v>43</v>
@@ -14821,8 +14822,8 @@
       <c r="V137" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W137" s="3" t="s">
-        <v>43</v>
+      <c r="W137" s="3">
+        <v>1</v>
       </c>
       <c r="X137" s="3" t="s">
         <v>43</v>
@@ -14925,8 +14926,8 @@
       <c r="V138" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W138" s="3" t="s">
-        <v>44</v>
+      <c r="W138" s="3">
+        <v>0</v>
       </c>
       <c r="X138" s="3" t="s">
         <v>44</v>
@@ -15029,8 +15030,8 @@
       <c r="V139" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W139" s="3" t="s">
-        <v>43</v>
+      <c r="W139" s="3">
+        <v>1</v>
       </c>
       <c r="X139" s="3" t="s">
         <v>43</v>
@@ -15133,8 +15134,8 @@
       <c r="V140" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W140" s="3" t="s">
-        <v>44</v>
+      <c r="W140" s="3">
+        <v>0</v>
       </c>
       <c r="X140" s="3" t="s">
         <v>43</v>
@@ -15237,8 +15238,8 @@
       <c r="V141" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W141" s="3" t="s">
-        <v>43</v>
+      <c r="W141" s="3">
+        <v>1</v>
       </c>
       <c r="X141" s="3" t="s">
         <v>44</v>
@@ -15341,8 +15342,8 @@
       <c r="V142" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W142" s="3" t="s">
-        <v>43</v>
+      <c r="W142" s="3">
+        <v>1</v>
       </c>
       <c r="X142" s="3" t="s">
         <v>44</v>
@@ -15445,8 +15446,8 @@
       <c r="V143" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W143" s="3" t="s">
-        <v>43</v>
+      <c r="W143" s="3">
+        <v>1</v>
       </c>
       <c r="X143" s="3" t="s">
         <v>44</v>
@@ -15549,8 +15550,8 @@
       <c r="V144" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W144" s="3" t="s">
-        <v>43</v>
+      <c r="W144" s="3">
+        <v>1</v>
       </c>
       <c r="X144" s="3" t="s">
         <v>44</v>
@@ -15653,8 +15654,8 @@
       <c r="V145" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W145" s="3" t="s">
-        <v>43</v>
+      <c r="W145" s="3">
+        <v>1</v>
       </c>
       <c r="X145" s="3" t="s">
         <v>44</v>
@@ -15757,8 +15758,8 @@
       <c r="V146" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W146" s="3" t="s">
-        <v>43</v>
+      <c r="W146" s="3">
+        <v>1</v>
       </c>
       <c r="X146" s="3" t="s">
         <v>44</v>
@@ -15861,8 +15862,8 @@
       <c r="V147" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W147" s="3" t="s">
-        <v>43</v>
+      <c r="W147" s="3">
+        <v>1</v>
       </c>
       <c r="X147" s="3" t="s">
         <v>44</v>
@@ -15965,8 +15966,8 @@
       <c r="V148" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W148" s="3" t="s">
-        <v>43</v>
+      <c r="W148" s="3">
+        <v>1</v>
       </c>
       <c r="X148" s="3" t="s">
         <v>44</v>
@@ -16069,8 +16070,8 @@
       <c r="V149" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W149" s="3" t="s">
-        <v>43</v>
+      <c r="W149" s="3">
+        <v>1</v>
       </c>
       <c r="X149" s="3" t="s">
         <v>44</v>
@@ -16173,8 +16174,8 @@
       <c r="V150" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W150" s="3" t="s">
-        <v>43</v>
+      <c r="W150" s="3">
+        <v>1</v>
       </c>
       <c r="X150" s="3" t="s">
         <v>43</v>
@@ -16277,8 +16278,8 @@
       <c r="V151" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W151" s="3" t="s">
-        <v>43</v>
+      <c r="W151" s="3">
+        <v>1</v>
       </c>
       <c r="X151" s="3" t="s">
         <v>44</v>
@@ -16381,8 +16382,8 @@
       <c r="V152" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W152" s="3" t="s">
-        <v>43</v>
+      <c r="W152" s="3">
+        <v>1</v>
       </c>
       <c r="X152" s="3" t="s">
         <v>43</v>
@@ -16485,8 +16486,8 @@
       <c r="V153" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W153" s="3" t="s">
-        <v>44</v>
+      <c r="W153" s="3">
+        <v>0</v>
       </c>
       <c r="X153" s="3" t="s">
         <v>43</v>
@@ -16589,8 +16590,8 @@
       <c r="V154" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W154" s="3" t="s">
-        <v>43</v>
+      <c r="W154" s="3">
+        <v>1</v>
       </c>
       <c r="X154" s="3" t="s">
         <v>43</v>
@@ -16693,8 +16694,8 @@
       <c r="V155" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W155" s="3" t="s">
-        <v>43</v>
+      <c r="W155" s="3">
+        <v>1</v>
       </c>
       <c r="X155" s="3" t="s">
         <v>43</v>
@@ -16797,8 +16798,8 @@
       <c r="V156" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W156" s="3" t="s">
-        <v>44</v>
+      <c r="W156" s="3">
+        <v>0</v>
       </c>
       <c r="X156" s="3" t="s">
         <v>43</v>
@@ -16901,8 +16902,8 @@
       <c r="V157" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W157" s="3" t="s">
-        <v>44</v>
+      <c r="W157" s="3">
+        <v>0</v>
       </c>
       <c r="X157" s="3" t="s">
         <v>44</v>
@@ -17005,8 +17006,8 @@
       <c r="V158" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W158" s="3" t="s">
-        <v>44</v>
+      <c r="W158" s="3">
+        <v>0</v>
       </c>
       <c r="X158" s="3" t="s">
         <v>44</v>
@@ -17109,8 +17110,8 @@
       <c r="V159" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W159" s="3" t="s">
-        <v>44</v>
+      <c r="W159" s="3">
+        <v>0</v>
       </c>
       <c r="X159" s="3" t="s">
         <v>44</v>
@@ -17213,8 +17214,8 @@
       <c r="V160" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W160" s="3" t="s">
-        <v>44</v>
+      <c r="W160" s="3">
+        <v>0</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>44</v>
@@ -17317,8 +17318,8 @@
       <c r="V161" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W161" s="3" t="s">
-        <v>43</v>
+      <c r="W161" s="3">
+        <v>1</v>
       </c>
       <c r="X161" s="3" t="s">
         <v>43</v>
@@ -17421,8 +17422,8 @@
       <c r="V162" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W162" s="3" t="s">
-        <v>43</v>
+      <c r="W162" s="3">
+        <v>1</v>
       </c>
       <c r="X162" s="3" t="s">
         <v>43</v>
@@ -17525,8 +17526,8 @@
       <c r="V163" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W163" s="3" t="s">
-        <v>43</v>
+      <c r="W163" s="3">
+        <v>1</v>
       </c>
       <c r="X163" s="3" t="s">
         <v>43</v>
@@ -17629,8 +17630,8 @@
       <c r="V164" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W164" s="3" t="s">
-        <v>44</v>
+      <c r="W164" s="3">
+        <v>0</v>
       </c>
       <c r="X164" s="3" t="s">
         <v>44</v>
@@ -17733,8 +17734,8 @@
       <c r="V165" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W165" s="3" t="s">
-        <v>43</v>
+      <c r="W165" s="3">
+        <v>1</v>
       </c>
       <c r="X165" s="3" t="s">
         <v>44</v>
@@ -17837,8 +17838,8 @@
       <c r="V166" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W166" s="3" t="s">
-        <v>44</v>
+      <c r="W166" s="3">
+        <v>0</v>
       </c>
       <c r="X166" s="3" t="s">
         <v>43</v>
@@ -17941,8 +17942,8 @@
       <c r="V167" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W167" s="3" t="s">
-        <v>44</v>
+      <c r="W167" s="3">
+        <v>0</v>
       </c>
       <c r="X167" s="3" t="s">
         <v>44</v>
@@ -18045,8 +18046,8 @@
       <c r="V168" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W168" s="3" t="s">
-        <v>43</v>
+      <c r="W168" s="3">
+        <v>1</v>
       </c>
       <c r="X168" s="3" t="s">
         <v>44</v>
@@ -18149,8 +18150,8 @@
       <c r="V169" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W169" s="3" t="s">
-        <v>43</v>
+      <c r="W169" s="3">
+        <v>1</v>
       </c>
       <c r="X169" s="3" t="s">
         <v>43</v>
@@ -18253,8 +18254,8 @@
       <c r="V170" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W170" s="3" t="s">
-        <v>43</v>
+      <c r="W170" s="3">
+        <v>1</v>
       </c>
       <c r="X170" s="3" t="s">
         <v>44</v>
@@ -18357,8 +18358,8 @@
       <c r="V171" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W171" s="3" t="s">
-        <v>43</v>
+      <c r="W171" s="3">
+        <v>1</v>
       </c>
       <c r="X171" s="3" t="s">
         <v>43</v>
@@ -18461,8 +18462,8 @@
       <c r="V172" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W172" s="3" t="s">
-        <v>43</v>
+      <c r="W172" s="3">
+        <v>1</v>
       </c>
       <c r="X172" s="3" t="s">
         <v>44</v>
@@ -18565,8 +18566,8 @@
       <c r="V173" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W173" s="3" t="s">
-        <v>43</v>
+      <c r="W173" s="3">
+        <v>1</v>
       </c>
       <c r="X173" s="3" t="s">
         <v>43</v>
@@ -18669,8 +18670,8 @@
       <c r="V174" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W174" s="3" t="s">
-        <v>43</v>
+      <c r="W174" s="3">
+        <v>1</v>
       </c>
       <c r="X174" s="3" t="s">
         <v>44</v>
@@ -18773,8 +18774,8 @@
       <c r="V175" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W175" s="3" t="s">
-        <v>43</v>
+      <c r="W175" s="3">
+        <v>1</v>
       </c>
       <c r="X175" s="3" t="s">
         <v>43</v>
@@ -18877,8 +18878,8 @@
       <c r="V176" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W176" s="3" t="s">
-        <v>43</v>
+      <c r="W176" s="3">
+        <v>1</v>
       </c>
       <c r="X176" s="3" t="s">
         <v>44</v>
@@ -18981,8 +18982,8 @@
       <c r="V177" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W177" s="3" t="s">
-        <v>43</v>
+      <c r="W177" s="3">
+        <v>1</v>
       </c>
       <c r="X177" s="3" t="s">
         <v>44</v>
@@ -19085,8 +19086,8 @@
       <c r="V178" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W178" s="3" t="s">
-        <v>43</v>
+      <c r="W178" s="3">
+        <v>1</v>
       </c>
       <c r="X178" s="3" t="s">
         <v>44</v>
@@ -19189,8 +19190,8 @@
       <c r="V179" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W179" s="3" t="s">
-        <v>43</v>
+      <c r="W179" s="3">
+        <v>1</v>
       </c>
       <c r="X179" s="3" t="s">
         <v>44</v>
@@ -19293,8 +19294,8 @@
       <c r="V180" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W180" s="3" t="s">
-        <v>43</v>
+      <c r="W180" s="3">
+        <v>1</v>
       </c>
       <c r="X180" s="3" t="s">
         <v>43</v>
@@ -19397,8 +19398,8 @@
       <c r="V181" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W181" s="3" t="s">
-        <v>43</v>
+      <c r="W181" s="3">
+        <v>1</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>43</v>
@@ -19501,8 +19502,8 @@
       <c r="V182" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W182" s="3" t="s">
-        <v>43</v>
+      <c r="W182" s="3">
+        <v>1</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>44</v>
@@ -19605,8 +19606,8 @@
       <c r="V183" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W183" s="3" t="s">
-        <v>43</v>
+      <c r="W183" s="3">
+        <v>1</v>
       </c>
       <c r="X183" s="3" t="s">
         <v>43</v>
@@ -19709,8 +19710,8 @@
       <c r="V184" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W184" s="3" t="s">
-        <v>44</v>
+      <c r="W184" s="3">
+        <v>0</v>
       </c>
       <c r="X184" s="3" t="s">
         <v>44</v>
@@ -19813,8 +19814,8 @@
       <c r="V185" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W185" s="3" t="s">
-        <v>43</v>
+      <c r="W185" s="3">
+        <v>1</v>
       </c>
       <c r="X185" s="3" t="s">
         <v>43</v>
@@ -19917,8 +19918,8 @@
       <c r="V186" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W186" s="3" t="s">
-        <v>43</v>
+      <c r="W186" s="3">
+        <v>1</v>
       </c>
       <c r="X186" s="3" t="s">
         <v>44</v>
@@ -20021,8 +20022,8 @@
       <c r="V187" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W187" s="3" t="s">
-        <v>43</v>
+      <c r="W187" s="3">
+        <v>1</v>
       </c>
       <c r="X187" s="3" t="s">
         <v>43</v>
@@ -20125,8 +20126,8 @@
       <c r="V188" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W188" s="3" t="s">
-        <v>43</v>
+      <c r="W188" s="3">
+        <v>1</v>
       </c>
       <c r="X188" s="3" t="s">
         <v>43</v>
@@ -20229,8 +20230,8 @@
       <c r="V189" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W189" s="3" t="s">
-        <v>43</v>
+      <c r="W189" s="3">
+        <v>1</v>
       </c>
       <c r="X189" s="3" t="s">
         <v>43</v>
@@ -20333,8 +20334,8 @@
       <c r="V190" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W190" s="3" t="s">
-        <v>43</v>
+      <c r="W190" s="3">
+        <v>1</v>
       </c>
       <c r="X190" s="3" t="s">
         <v>43</v>
@@ -20437,8 +20438,8 @@
       <c r="V191" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W191" s="3" t="s">
-        <v>44</v>
+      <c r="W191" s="3">
+        <v>0</v>
       </c>
       <c r="X191" s="3" t="s">
         <v>44</v>
@@ -20541,8 +20542,8 @@
       <c r="V192" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W192" s="3" t="s">
-        <v>43</v>
+      <c r="W192" s="3">
+        <v>1</v>
       </c>
       <c r="X192" s="3" t="s">
         <v>44</v>
@@ -20645,8 +20646,8 @@
       <c r="V193" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W193" s="3" t="s">
-        <v>43</v>
+      <c r="W193" s="3">
+        <v>1</v>
       </c>
       <c r="X193" s="3" t="s">
         <v>44</v>
@@ -20749,8 +20750,8 @@
       <c r="V194" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W194" s="3" t="s">
-        <v>43</v>
+      <c r="W194" s="3">
+        <v>1</v>
       </c>
       <c r="X194" s="3" t="s">
         <v>44</v>
@@ -20853,8 +20854,8 @@
       <c r="V195" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W195" s="3" t="s">
-        <v>43</v>
+      <c r="W195" s="3">
+        <v>1</v>
       </c>
       <c r="X195" s="3" t="s">
         <v>44</v>
@@ -20957,8 +20958,8 @@
       <c r="V196" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W196" s="3" t="s">
-        <v>43</v>
+      <c r="W196" s="3">
+        <v>1</v>
       </c>
       <c r="X196" s="3" t="s">
         <v>44</v>
@@ -21061,8 +21062,8 @@
       <c r="V197" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W197" s="3" t="s">
-        <v>43</v>
+      <c r="W197" s="3">
+        <v>1</v>
       </c>
       <c r="X197" s="3" t="s">
         <v>43</v>
@@ -21165,8 +21166,8 @@
       <c r="V198" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W198" s="3" t="s">
-        <v>43</v>
+      <c r="W198" s="3">
+        <v>1</v>
       </c>
       <c r="X198" s="3" t="s">
         <v>44</v>
@@ -21269,8 +21270,8 @@
       <c r="V199" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W199" s="3" t="s">
-        <v>43</v>
+      <c r="W199" s="3">
+        <v>1</v>
       </c>
       <c r="X199" s="3" t="s">
         <v>44</v>
@@ -21373,8 +21374,8 @@
       <c r="V200" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W200" s="3" t="s">
-        <v>43</v>
+      <c r="W200" s="3">
+        <v>1</v>
       </c>
       <c r="X200" s="3" t="s">
         <v>44</v>
@@ -21477,8 +21478,8 @@
       <c r="V201" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W201" s="3" t="s">
-        <v>43</v>
+      <c r="W201" s="3">
+        <v>1</v>
       </c>
       <c r="X201" s="3" t="s">
         <v>44</v>
@@ -21581,8 +21582,8 @@
       <c r="V202" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W202" s="3" t="s">
-        <v>43</v>
+      <c r="W202" s="3">
+        <v>1</v>
       </c>
       <c r="X202" s="3" t="s">
         <v>44</v>
@@ -21685,8 +21686,8 @@
       <c r="V203" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W203" s="3" t="s">
-        <v>44</v>
+      <c r="W203" s="3">
+        <v>0</v>
       </c>
       <c r="X203" s="3" t="s">
         <v>44</v>
@@ -21789,8 +21790,8 @@
       <c r="V204" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W204" s="3" t="s">
-        <v>44</v>
+      <c r="W204" s="3">
+        <v>0</v>
       </c>
       <c r="X204" s="3" t="s">
         <v>44</v>
@@ -21893,8 +21894,8 @@
       <c r="V205" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W205" s="3" t="s">
-        <v>43</v>
+      <c r="W205" s="3">
+        <v>1</v>
       </c>
       <c r="X205" s="3" t="s">
         <v>44</v>
@@ -21997,8 +21998,8 @@
       <c r="V206" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W206" s="3" t="s">
-        <v>43</v>
+      <c r="W206" s="3">
+        <v>1</v>
       </c>
       <c r="X206" s="3" t="s">
         <v>44</v>
@@ -22101,8 +22102,8 @@
       <c r="V207" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W207" s="3" t="s">
-        <v>43</v>
+      <c r="W207" s="3">
+        <v>1</v>
       </c>
       <c r="X207" s="3" t="s">
         <v>43</v>
@@ -22205,8 +22206,8 @@
       <c r="V208" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W208" s="3" t="s">
-        <v>43</v>
+      <c r="W208" s="3">
+        <v>1</v>
       </c>
       <c r="X208" s="3" t="s">
         <v>44</v>
@@ -22309,8 +22310,8 @@
       <c r="V209" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W209" s="3" t="s">
-        <v>43</v>
+      <c r="W209" s="3">
+        <v>1</v>
       </c>
       <c r="X209" s="3" t="s">
         <v>43</v>
@@ -22413,8 +22414,8 @@
       <c r="V210" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W210" s="3" t="s">
-        <v>44</v>
+      <c r="W210" s="3">
+        <v>0</v>
       </c>
       <c r="X210" s="3" t="s">
         <v>44</v>
@@ -22517,8 +22518,8 @@
       <c r="V211" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W211" s="3" t="s">
-        <v>43</v>
+      <c r="W211" s="3">
+        <v>1</v>
       </c>
       <c r="X211" s="3" t="s">
         <v>43</v>
@@ -22621,8 +22622,8 @@
       <c r="V212" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W212" s="3" t="s">
-        <v>43</v>
+      <c r="W212" s="3">
+        <v>1</v>
       </c>
       <c r="X212" s="3" t="s">
         <v>44</v>
@@ -22725,8 +22726,8 @@
       <c r="V213" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W213" s="3" t="s">
-        <v>43</v>
+      <c r="W213" s="3">
+        <v>1</v>
       </c>
       <c r="X213" s="3" t="s">
         <v>43</v>
@@ -22829,8 +22830,8 @@
       <c r="V214" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W214" s="3" t="s">
-        <v>43</v>
+      <c r="W214" s="3">
+        <v>1</v>
       </c>
       <c r="X214" s="3" t="s">
         <v>44</v>
@@ -22933,8 +22934,8 @@
       <c r="V215" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W215" s="3" t="s">
-        <v>43</v>
+      <c r="W215" s="3">
+        <v>1</v>
       </c>
       <c r="X215" s="3" t="s">
         <v>44</v>
@@ -23037,8 +23038,8 @@
       <c r="V216" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W216" s="3" t="s">
-        <v>44</v>
+      <c r="W216" s="3">
+        <v>0</v>
       </c>
       <c r="X216" s="3" t="s">
         <v>44</v>
@@ -23141,8 +23142,8 @@
       <c r="V217" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W217" s="3" t="s">
-        <v>43</v>
+      <c r="W217" s="3">
+        <v>1</v>
       </c>
       <c r="X217" s="3" t="s">
         <v>44</v>
@@ -23245,8 +23246,8 @@
       <c r="V218" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W218" s="3" t="s">
-        <v>43</v>
+      <c r="W218" s="3">
+        <v>1</v>
       </c>
       <c r="X218" s="3" t="s">
         <v>43</v>
@@ -23349,8 +23350,8 @@
       <c r="V219" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W219" s="3" t="s">
-        <v>43</v>
+      <c r="W219" s="3">
+        <v>1</v>
       </c>
       <c r="X219" s="3" t="s">
         <v>44</v>
@@ -23453,8 +23454,8 @@
       <c r="V220" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W220" s="3" t="s">
-        <v>44</v>
+      <c r="W220" s="3">
+        <v>0</v>
       </c>
       <c r="X220" s="3" t="s">
         <v>44</v>
@@ -23557,8 +23558,8 @@
       <c r="V221" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W221" s="3" t="s">
-        <v>43</v>
+      <c r="W221" s="3">
+        <v>1</v>
       </c>
       <c r="X221" s="3" t="s">
         <v>44</v>
@@ -23661,8 +23662,8 @@
       <c r="V222" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W222" s="3" t="s">
-        <v>43</v>
+      <c r="W222" s="3">
+        <v>1</v>
       </c>
       <c r="X222" s="3" t="s">
         <v>44</v>
@@ -23765,8 +23766,8 @@
       <c r="V223" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W223" s="3" t="s">
-        <v>44</v>
+      <c r="W223" s="3">
+        <v>0</v>
       </c>
       <c r="X223" s="3" t="s">
         <v>43</v>
@@ -23869,8 +23870,8 @@
       <c r="V224" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W224" s="3" t="s">
-        <v>43</v>
+      <c r="W224" s="3">
+        <v>1</v>
       </c>
       <c r="X224" s="3" t="s">
         <v>44</v>
@@ -23973,8 +23974,8 @@
       <c r="V225" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W225" s="3" t="s">
-        <v>43</v>
+      <c r="W225" s="3">
+        <v>1</v>
       </c>
       <c r="X225" s="3" t="s">
         <v>44</v>
@@ -24077,8 +24078,8 @@
       <c r="V226" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W226" s="3" t="s">
-        <v>43</v>
+      <c r="W226" s="3">
+        <v>1</v>
       </c>
       <c r="X226" s="3" t="s">
         <v>44</v>
@@ -24181,8 +24182,8 @@
       <c r="V227" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W227" s="3" t="s">
-        <v>43</v>
+      <c r="W227" s="3">
+        <v>1</v>
       </c>
       <c r="X227" s="3" t="s">
         <v>43</v>
@@ -24285,8 +24286,8 @@
       <c r="V228" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W228" s="3" t="s">
-        <v>43</v>
+      <c r="W228" s="3">
+        <v>1</v>
       </c>
       <c r="X228" s="3" t="s">
         <v>44</v>
@@ -24389,8 +24390,8 @@
       <c r="V229" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W229" s="3" t="s">
-        <v>43</v>
+      <c r="W229" s="3">
+        <v>1</v>
       </c>
       <c r="X229" s="3" t="s">
         <v>44</v>
@@ -24493,8 +24494,8 @@
       <c r="V230" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W230" s="3" t="s">
-        <v>43</v>
+      <c r="W230" s="3">
+        <v>1</v>
       </c>
       <c r="X230" s="3" t="s">
         <v>43</v>
@@ -24597,8 +24598,8 @@
       <c r="V231" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W231" s="3" t="s">
-        <v>43</v>
+      <c r="W231" s="3">
+        <v>1</v>
       </c>
       <c r="X231" s="3" t="s">
         <v>43</v>
@@ -24701,8 +24702,8 @@
       <c r="V232" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W232" s="3" t="s">
-        <v>43</v>
+      <c r="W232" s="3">
+        <v>1</v>
       </c>
       <c r="X232" s="3" t="s">
         <v>43</v>
@@ -24805,8 +24806,8 @@
       <c r="V233" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W233" s="3" t="s">
-        <v>43</v>
+      <c r="W233" s="3">
+        <v>1</v>
       </c>
       <c r="X233" s="3" t="s">
         <v>44</v>
@@ -24909,8 +24910,8 @@
       <c r="V234" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W234" s="3" t="s">
-        <v>43</v>
+      <c r="W234" s="3">
+        <v>1</v>
       </c>
       <c r="X234" s="3" t="s">
         <v>43</v>
@@ -25013,8 +25014,8 @@
       <c r="V235" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W235" s="3" t="s">
-        <v>43</v>
+      <c r="W235" s="3">
+        <v>1</v>
       </c>
       <c r="X235" s="3" t="s">
         <v>44</v>
@@ -25117,8 +25118,8 @@
       <c r="V236" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W236" s="3" t="s">
-        <v>43</v>
+      <c r="W236" s="3">
+        <v>1</v>
       </c>
       <c r="X236" s="3" t="s">
         <v>44</v>
@@ -25221,8 +25222,8 @@
       <c r="V237" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W237" s="3" t="s">
-        <v>43</v>
+      <c r="W237" s="3">
+        <v>1</v>
       </c>
       <c r="X237" s="3" t="s">
         <v>43</v>
@@ -25325,8 +25326,8 @@
       <c r="V238" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W238" s="3" t="s">
-        <v>43</v>
+      <c r="W238" s="3">
+        <v>1</v>
       </c>
       <c r="X238" s="3" t="s">
         <v>43</v>
@@ -25429,8 +25430,8 @@
       <c r="V239" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W239" s="3" t="s">
-        <v>43</v>
+      <c r="W239" s="3">
+        <v>1</v>
       </c>
       <c r="X239" s="3" t="s">
         <v>43</v>
@@ -25533,8 +25534,8 @@
       <c r="V240" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W240" s="3" t="s">
-        <v>44</v>
+      <c r="W240" s="3">
+        <v>0</v>
       </c>
       <c r="X240" s="3" t="s">
         <v>44</v>
@@ -25637,8 +25638,8 @@
       <c r="V241" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W241" s="3" t="s">
-        <v>43</v>
+      <c r="W241" s="3">
+        <v>1</v>
       </c>
       <c r="X241" s="3" t="s">
         <v>44</v>
@@ -25741,8 +25742,8 @@
       <c r="V242" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W242" s="3" t="s">
-        <v>43</v>
+      <c r="W242" s="3">
+        <v>1</v>
       </c>
       <c r="X242" s="3" t="s">
         <v>43</v>
@@ -25845,8 +25846,8 @@
       <c r="V243" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W243" s="3" t="s">
-        <v>43</v>
+      <c r="W243" s="3">
+        <v>1</v>
       </c>
       <c r="X243" s="3" t="s">
         <v>44</v>
@@ -25949,8 +25950,8 @@
       <c r="V244" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W244" s="3" t="s">
-        <v>43</v>
+      <c r="W244" s="3">
+        <v>1</v>
       </c>
       <c r="X244" s="3" t="s">
         <v>44</v>
@@ -26053,8 +26054,8 @@
       <c r="V245" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W245" s="3" t="s">
-        <v>43</v>
+      <c r="W245" s="3">
+        <v>1</v>
       </c>
       <c r="X245" s="3" t="s">
         <v>44</v>
@@ -26157,8 +26158,8 @@
       <c r="V246" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W246" s="3" t="s">
-        <v>43</v>
+      <c r="W246" s="3">
+        <v>1</v>
       </c>
       <c r="X246" s="3" t="s">
         <v>43</v>
@@ -26261,8 +26262,8 @@
       <c r="V247" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W247" s="3" t="s">
-        <v>43</v>
+      <c r="W247" s="3">
+        <v>1</v>
       </c>
       <c r="X247" s="3" t="s">
         <v>44</v>
@@ -26365,8 +26366,8 @@
       <c r="V248" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W248" s="3" t="s">
-        <v>43</v>
+      <c r="W248" s="3">
+        <v>1</v>
       </c>
       <c r="X248" s="3" t="s">
         <v>44</v>
@@ -26469,8 +26470,8 @@
       <c r="V249" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W249" s="3" t="s">
-        <v>43</v>
+      <c r="W249" s="3">
+        <v>1</v>
       </c>
       <c r="X249" s="3" t="s">
         <v>43</v>
@@ -26573,8 +26574,8 @@
       <c r="V250" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W250" s="3" t="s">
-        <v>43</v>
+      <c r="W250" s="3">
+        <v>1</v>
       </c>
       <c r="X250" s="3" t="s">
         <v>43</v>
@@ -26677,8 +26678,8 @@
       <c r="V251" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W251" s="3" t="s">
-        <v>43</v>
+      <c r="W251" s="3">
+        <v>1</v>
       </c>
       <c r="X251" s="3" t="s">
         <v>44</v>
@@ -26781,8 +26782,8 @@
       <c r="V252" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W252" s="3" t="s">
-        <v>43</v>
+      <c r="W252" s="3">
+        <v>1</v>
       </c>
       <c r="X252" s="3" t="s">
         <v>44</v>
@@ -26885,8 +26886,8 @@
       <c r="V253" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W253" s="3" t="s">
-        <v>43</v>
+      <c r="W253" s="3">
+        <v>1</v>
       </c>
       <c r="X253" s="3" t="s">
         <v>44</v>
@@ -26989,8 +26990,8 @@
       <c r="V254" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W254" s="3" t="s">
-        <v>43</v>
+      <c r="W254" s="3">
+        <v>1</v>
       </c>
       <c r="X254" s="3" t="s">
         <v>44</v>
@@ -27093,8 +27094,8 @@
       <c r="V255" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W255" s="3" t="s">
-        <v>44</v>
+      <c r="W255" s="3">
+        <v>0</v>
       </c>
       <c r="X255" s="3" t="s">
         <v>44</v>
@@ -27197,8 +27198,8 @@
       <c r="V256" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W256" s="3" t="s">
-        <v>43</v>
+      <c r="W256" s="3">
+        <v>1</v>
       </c>
       <c r="X256" s="3" t="s">
         <v>44</v>
@@ -27301,8 +27302,8 @@
       <c r="V257" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W257" s="3" t="s">
-        <v>43</v>
+      <c r="W257" s="3">
+        <v>1</v>
       </c>
       <c r="X257" s="3" t="s">
         <v>44</v>
@@ -27405,8 +27406,8 @@
       <c r="V258" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W258" s="3" t="s">
-        <v>43</v>
+      <c r="W258" s="3">
+        <v>1</v>
       </c>
       <c r="X258" s="3" t="s">
         <v>44</v>
@@ -27509,8 +27510,8 @@
       <c r="V259" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W259" s="3" t="s">
-        <v>43</v>
+      <c r="W259" s="3">
+        <v>1</v>
       </c>
       <c r="X259" s="3" t="s">
         <v>44</v>
@@ -27613,8 +27614,8 @@
       <c r="V260" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W260" s="3" t="s">
-        <v>43</v>
+      <c r="W260" s="3">
+        <v>1</v>
       </c>
       <c r="X260" s="3" t="s">
         <v>44</v>
@@ -27717,8 +27718,8 @@
       <c r="V261" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W261" s="3" t="s">
-        <v>43</v>
+      <c r="W261" s="3">
+        <v>1</v>
       </c>
       <c r="X261" s="3" t="s">
         <v>43</v>
@@ -27821,8 +27822,8 @@
       <c r="V262" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W262" s="3" t="s">
-        <v>43</v>
+      <c r="W262" s="3">
+        <v>1</v>
       </c>
       <c r="X262" s="3" t="s">
         <v>43</v>
@@ -27925,8 +27926,8 @@
       <c r="V263" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W263" s="3" t="s">
-        <v>43</v>
+      <c r="W263" s="3">
+        <v>1</v>
       </c>
       <c r="X263" s="3" t="s">
         <v>44</v>
@@ -28029,8 +28030,8 @@
       <c r="V264" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W264" s="3" t="s">
-        <v>44</v>
+      <c r="W264" s="3">
+        <v>0</v>
       </c>
       <c r="X264" s="3" t="s">
         <v>44</v>
@@ -28133,8 +28134,8 @@
       <c r="V265" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W265" s="3" t="s">
-        <v>44</v>
+      <c r="W265" s="3">
+        <v>0</v>
       </c>
       <c r="X265" s="3" t="s">
         <v>44</v>
@@ -28237,8 +28238,8 @@
       <c r="V266" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W266" s="3" t="s">
-        <v>43</v>
+      <c r="W266" s="3">
+        <v>1</v>
       </c>
       <c r="X266" s="3" t="s">
         <v>43</v>
@@ -28341,8 +28342,8 @@
       <c r="V267" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W267" s="3" t="s">
-        <v>43</v>
+      <c r="W267" s="3">
+        <v>1</v>
       </c>
       <c r="X267" s="3" t="s">
         <v>44</v>
@@ -28445,8 +28446,8 @@
       <c r="V268" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W268" s="3" t="s">
-        <v>43</v>
+      <c r="W268" s="3">
+        <v>1</v>
       </c>
       <c r="X268" s="3" t="s">
         <v>43</v>
@@ -28549,8 +28550,8 @@
       <c r="V269" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W269" s="3" t="s">
-        <v>43</v>
+      <c r="W269" s="3">
+        <v>1</v>
       </c>
       <c r="X269" s="3" t="s">
         <v>44</v>
@@ -28653,8 +28654,8 @@
       <c r="V270" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W270" s="3" t="s">
-        <v>43</v>
+      <c r="W270" s="3">
+        <v>1</v>
       </c>
       <c r="X270" s="3" t="s">
         <v>43</v>
@@ -28757,8 +28758,8 @@
       <c r="V271" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W271" s="3" t="s">
-        <v>43</v>
+      <c r="W271" s="3">
+        <v>1</v>
       </c>
       <c r="X271" s="3" t="s">
         <v>43</v>
@@ -28861,8 +28862,8 @@
       <c r="V272" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W272" s="3" t="s">
-        <v>43</v>
+      <c r="W272" s="3">
+        <v>1</v>
       </c>
       <c r="X272" s="3" t="s">
         <v>44</v>
@@ -28965,8 +28966,8 @@
       <c r="V273" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W273" s="3" t="s">
-        <v>43</v>
+      <c r="W273" s="3">
+        <v>1</v>
       </c>
       <c r="X273" s="3" t="s">
         <v>43</v>
@@ -29069,8 +29070,8 @@
       <c r="V274" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W274" s="3" t="s">
-        <v>44</v>
+      <c r="W274" s="3">
+        <v>0</v>
       </c>
       <c r="X274" s="3" t="s">
         <v>44</v>
@@ -29173,8 +29174,8 @@
       <c r="V275" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W275" s="3" t="s">
-        <v>44</v>
+      <c r="W275" s="3">
+        <v>0</v>
       </c>
       <c r="X275" s="3" t="s">
         <v>43</v>
@@ -29277,8 +29278,8 @@
       <c r="V276" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W276" s="3" t="s">
-        <v>43</v>
+      <c r="W276" s="3">
+        <v>1</v>
       </c>
       <c r="X276" s="3" t="s">
         <v>43</v>
@@ -29381,8 +29382,8 @@
       <c r="V277" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W277" s="3" t="s">
-        <v>43</v>
+      <c r="W277" s="3">
+        <v>1</v>
       </c>
       <c r="X277" s="3" t="s">
         <v>43</v>
@@ -29485,8 +29486,8 @@
       <c r="V278" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W278" s="3" t="s">
-        <v>43</v>
+      <c r="W278" s="3">
+        <v>1</v>
       </c>
       <c r="X278" s="3" t="s">
         <v>43</v>
@@ -29589,8 +29590,8 @@
       <c r="V279" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W279" s="3" t="s">
-        <v>43</v>
+      <c r="W279" s="3">
+        <v>1</v>
       </c>
       <c r="X279" s="3" t="s">
         <v>44</v>
@@ -29693,8 +29694,8 @@
       <c r="V280" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W280" s="3" t="s">
-        <v>43</v>
+      <c r="W280" s="3">
+        <v>1</v>
       </c>
       <c r="X280" s="3" t="s">
         <v>43</v>
@@ -29797,8 +29798,8 @@
       <c r="V281" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W281" s="3" t="s">
-        <v>43</v>
+      <c r="W281" s="3">
+        <v>1</v>
       </c>
       <c r="X281" s="3" t="s">
         <v>44</v>
@@ -29901,8 +29902,8 @@
       <c r="V282" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W282" s="3" t="s">
-        <v>43</v>
+      <c r="W282" s="3">
+        <v>1</v>
       </c>
       <c r="X282" s="3" t="s">
         <v>43</v>
@@ -30005,8 +30006,8 @@
       <c r="V283" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W283" s="3" t="s">
-        <v>43</v>
+      <c r="W283" s="3">
+        <v>1</v>
       </c>
       <c r="X283" s="3" t="s">
         <v>44</v>
@@ -30109,8 +30110,8 @@
       <c r="V284" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W284" s="3" t="s">
-        <v>44</v>
+      <c r="W284" s="3">
+        <v>0</v>
       </c>
       <c r="X284" s="3" t="s">
         <v>44</v>
@@ -30213,8 +30214,8 @@
       <c r="V285" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W285" s="3" t="s">
-        <v>43</v>
+      <c r="W285" s="3">
+        <v>1</v>
       </c>
       <c r="X285" s="3" t="s">
         <v>44</v>
@@ -30317,8 +30318,8 @@
       <c r="V286" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W286" s="3" t="s">
-        <v>43</v>
+      <c r="W286" s="3">
+        <v>1</v>
       </c>
       <c r="X286" s="3" t="s">
         <v>44</v>
@@ -30421,8 +30422,8 @@
       <c r="V287" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W287" s="3" t="s">
-        <v>43</v>
+      <c r="W287" s="3">
+        <v>1</v>
       </c>
       <c r="X287" s="3" t="s">
         <v>44</v>
@@ -30525,8 +30526,8 @@
       <c r="V288" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W288" s="3" t="s">
-        <v>43</v>
+      <c r="W288" s="3">
+        <v>1</v>
       </c>
       <c r="X288" s="3" t="s">
         <v>44</v>
@@ -30629,8 +30630,8 @@
       <c r="V289" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W289" s="3" t="s">
-        <v>43</v>
+      <c r="W289" s="3">
+        <v>1</v>
       </c>
       <c r="X289" s="3" t="s">
         <v>44</v>
@@ -30733,8 +30734,8 @@
       <c r="V290" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W290" s="3" t="s">
-        <v>43</v>
+      <c r="W290" s="3">
+        <v>1</v>
       </c>
       <c r="X290" s="3" t="s">
         <v>44</v>
@@ -30837,8 +30838,8 @@
       <c r="V291" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W291" s="3" t="s">
-        <v>43</v>
+      <c r="W291" s="3">
+        <v>1</v>
       </c>
       <c r="X291" s="3" t="s">
         <v>44</v>
@@ -30941,8 +30942,8 @@
       <c r="V292" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W292" s="3" t="s">
-        <v>43</v>
+      <c r="W292" s="3">
+        <v>1</v>
       </c>
       <c r="X292" s="3" t="s">
         <v>43</v>
@@ -31045,8 +31046,8 @@
       <c r="V293" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W293" s="3" t="s">
-        <v>43</v>
+      <c r="W293" s="3">
+        <v>1</v>
       </c>
       <c r="X293" s="3" t="s">
         <v>44</v>
@@ -31149,8 +31150,8 @@
       <c r="V294" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W294" s="3" t="s">
-        <v>43</v>
+      <c r="W294" s="3">
+        <v>1</v>
       </c>
       <c r="X294" s="3" t="s">
         <v>43</v>
@@ -31253,8 +31254,8 @@
       <c r="V295" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W295" s="3" t="s">
-        <v>44</v>
+      <c r="W295" s="3">
+        <v>0</v>
       </c>
       <c r="X295" s="3" t="s">
         <v>44</v>
@@ -31357,8 +31358,8 @@
       <c r="V296" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W296" s="3" t="s">
-        <v>43</v>
+      <c r="W296" s="3">
+        <v>1</v>
       </c>
       <c r="X296" s="3" t="s">
         <v>44</v>
@@ -31461,8 +31462,8 @@
       <c r="V297" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W297" s="3" t="s">
-        <v>43</v>
+      <c r="W297" s="3">
+        <v>1</v>
       </c>
       <c r="X297" s="3" t="s">
         <v>44</v>
@@ -31565,8 +31566,8 @@
       <c r="V298" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W298" s="3" t="s">
-        <v>43</v>
+      <c r="W298" s="3">
+        <v>1</v>
       </c>
       <c r="X298" s="3" t="s">
         <v>44</v>
@@ -31669,8 +31670,8 @@
       <c r="V299" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W299" s="3" t="s">
-        <v>43</v>
+      <c r="W299" s="3">
+        <v>1</v>
       </c>
       <c r="X299" s="3" t="s">
         <v>43</v>
@@ -31773,8 +31774,8 @@
       <c r="V300" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W300" s="3" t="s">
-        <v>43</v>
+      <c r="W300" s="3">
+        <v>1</v>
       </c>
       <c r="X300" s="3" t="s">
         <v>44</v>
@@ -31877,8 +31878,8 @@
       <c r="V301" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W301" s="3" t="s">
-        <v>43</v>
+      <c r="W301" s="3">
+        <v>1</v>
       </c>
       <c r="X301" s="3" t="s">
         <v>43</v>
@@ -31981,8 +31982,8 @@
       <c r="V302" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W302" s="3" t="s">
-        <v>43</v>
+      <c r="W302" s="3">
+        <v>1</v>
       </c>
       <c r="X302" s="3" t="s">
         <v>43</v>
@@ -32085,8 +32086,8 @@
       <c r="V303" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W303" s="3" t="s">
-        <v>43</v>
+      <c r="W303" s="3">
+        <v>1</v>
       </c>
       <c r="X303" s="3" t="s">
         <v>44</v>
@@ -32189,8 +32190,8 @@
       <c r="V304" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W304" s="3" t="s">
-        <v>43</v>
+      <c r="W304" s="3">
+        <v>1</v>
       </c>
       <c r="X304" s="3" t="s">
         <v>44</v>
@@ -32293,8 +32294,8 @@
       <c r="V305" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W305" s="3" t="s">
-        <v>43</v>
+      <c r="W305" s="3">
+        <v>1</v>
       </c>
       <c r="X305" s="3" t="s">
         <v>44</v>
@@ -32397,8 +32398,8 @@
       <c r="V306" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W306" s="3" t="s">
-        <v>43</v>
+      <c r="W306" s="3">
+        <v>1</v>
       </c>
       <c r="X306" s="3" t="s">
         <v>43</v>
@@ -32501,8 +32502,8 @@
       <c r="V307" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W307" s="3" t="s">
-        <v>43</v>
+      <c r="W307" s="3">
+        <v>1</v>
       </c>
       <c r="X307" s="3" t="s">
         <v>44</v>
@@ -32605,8 +32606,8 @@
       <c r="V308" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W308" s="3" t="s">
-        <v>44</v>
+      <c r="W308" s="3">
+        <v>0</v>
       </c>
       <c r="X308" s="3" t="s">
         <v>44</v>
@@ -32709,8 +32710,8 @@
       <c r="V309" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W309" s="3" t="s">
-        <v>43</v>
+      <c r="W309" s="3">
+        <v>1</v>
       </c>
       <c r="X309" s="3" t="s">
         <v>43</v>
@@ -32813,8 +32814,8 @@
       <c r="V310" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W310" s="3" t="s">
-        <v>44</v>
+      <c r="W310" s="3">
+        <v>0</v>
       </c>
       <c r="X310" s="3" t="s">
         <v>43</v>
@@ -32917,8 +32918,8 @@
       <c r="V311" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W311" s="3" t="s">
-        <v>43</v>
+      <c r="W311" s="3">
+        <v>1</v>
       </c>
       <c r="X311" s="3" t="s">
         <v>44</v>
@@ -33021,8 +33022,8 @@
       <c r="V312" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W312" s="3" t="s">
-        <v>44</v>
+      <c r="W312" s="3">
+        <v>0</v>
       </c>
       <c r="X312" s="3" t="s">
         <v>43</v>
@@ -33125,8 +33126,8 @@
       <c r="V313" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W313" s="3" t="s">
-        <v>43</v>
+      <c r="W313" s="3">
+        <v>1</v>
       </c>
       <c r="X313" s="3" t="s">
         <v>43</v>
@@ -33229,8 +33230,8 @@
       <c r="V314" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W314" s="3" t="s">
-        <v>43</v>
+      <c r="W314" s="3">
+        <v>1</v>
       </c>
       <c r="X314" s="3" t="s">
         <v>44</v>
@@ -33333,8 +33334,8 @@
       <c r="V315" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W315" s="3" t="s">
-        <v>43</v>
+      <c r="W315" s="3">
+        <v>1</v>
       </c>
       <c r="X315" s="3" t="s">
         <v>43</v>
@@ -33437,8 +33438,8 @@
       <c r="V316" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W316" s="3" t="s">
-        <v>43</v>
+      <c r="W316" s="3">
+        <v>1</v>
       </c>
       <c r="X316" s="3" t="s">
         <v>43</v>
@@ -33541,8 +33542,8 @@
       <c r="V317" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W317" s="3" t="s">
-        <v>43</v>
+      <c r="W317" s="3">
+        <v>1</v>
       </c>
       <c r="X317" s="3" t="s">
         <v>43</v>
@@ -33645,8 +33646,8 @@
       <c r="V318" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W318" s="3" t="s">
-        <v>43</v>
+      <c r="W318" s="3">
+        <v>1</v>
       </c>
       <c r="X318" s="3" t="s">
         <v>44</v>
@@ -33749,8 +33750,8 @@
       <c r="V319" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W319" s="3" t="s">
-        <v>43</v>
+      <c r="W319" s="3">
+        <v>1</v>
       </c>
       <c r="X319" s="3" t="s">
         <v>43</v>
@@ -33853,8 +33854,8 @@
       <c r="V320" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W320" s="3" t="s">
-        <v>43</v>
+      <c r="W320" s="3">
+        <v>1</v>
       </c>
       <c r="X320" s="3" t="s">
         <v>44</v>
@@ -33957,8 +33958,8 @@
       <c r="V321" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W321" s="3" t="s">
-        <v>43</v>
+      <c r="W321" s="3">
+        <v>1</v>
       </c>
       <c r="X321" s="3" t="s">
         <v>44</v>
@@ -34061,8 +34062,8 @@
       <c r="V322" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W322" s="3" t="s">
-        <v>43</v>
+      <c r="W322" s="3">
+        <v>1</v>
       </c>
       <c r="X322" s="3" t="s">
         <v>43</v>
@@ -34165,8 +34166,8 @@
       <c r="V323" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W323" s="3" t="s">
-        <v>44</v>
+      <c r="W323" s="3">
+        <v>0</v>
       </c>
       <c r="X323" s="3" t="s">
         <v>43</v>
@@ -34269,8 +34270,8 @@
       <c r="V324" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W324" s="3" t="s">
-        <v>43</v>
+      <c r="W324" s="3">
+        <v>1</v>
       </c>
       <c r="X324" s="3" t="s">
         <v>44</v>
@@ -34373,8 +34374,8 @@
       <c r="V325" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W325" s="3" t="s">
-        <v>43</v>
+      <c r="W325" s="3">
+        <v>1</v>
       </c>
       <c r="X325" s="3" t="s">
         <v>44</v>
@@ -34477,8 +34478,8 @@
       <c r="V326" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W326" s="3" t="s">
-        <v>43</v>
+      <c r="W326" s="3">
+        <v>1</v>
       </c>
       <c r="X326" s="3" t="s">
         <v>44</v>
@@ -34581,8 +34582,8 @@
       <c r="V327" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W327" s="3" t="s">
-        <v>43</v>
+      <c r="W327" s="3">
+        <v>1</v>
       </c>
       <c r="X327" s="3" t="s">
         <v>44</v>
@@ -34685,8 +34686,8 @@
       <c r="V328" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W328" s="3" t="s">
-        <v>43</v>
+      <c r="W328" s="3">
+        <v>1</v>
       </c>
       <c r="X328" s="3" t="s">
         <v>44</v>
@@ -34789,8 +34790,8 @@
       <c r="V329" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W329" s="3" t="s">
-        <v>43</v>
+      <c r="W329" s="3">
+        <v>1</v>
       </c>
       <c r="X329" s="3" t="s">
         <v>44</v>
@@ -34893,8 +34894,8 @@
       <c r="V330" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W330" s="3" t="s">
-        <v>43</v>
+      <c r="W330" s="3">
+        <v>1</v>
       </c>
       <c r="X330" s="3" t="s">
         <v>44</v>
@@ -34997,8 +34998,8 @@
       <c r="V331" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W331" s="3" t="s">
-        <v>43</v>
+      <c r="W331" s="3">
+        <v>1</v>
       </c>
       <c r="X331" s="3" t="s">
         <v>43</v>
@@ -35101,8 +35102,8 @@
       <c r="V332" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W332" s="3" t="s">
-        <v>43</v>
+      <c r="W332" s="3">
+        <v>1</v>
       </c>
       <c r="X332" s="3" t="s">
         <v>44</v>
@@ -35205,8 +35206,8 @@
       <c r="V333" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W333" s="3" t="s">
-        <v>43</v>
+      <c r="W333" s="3">
+        <v>1</v>
       </c>
       <c r="X333" s="3" t="s">
         <v>43</v>
@@ -35309,8 +35310,8 @@
       <c r="V334" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W334" s="3" t="s">
-        <v>43</v>
+      <c r="W334" s="3">
+        <v>1</v>
       </c>
       <c r="X334" s="3" t="s">
         <v>44</v>
@@ -35413,8 +35414,8 @@
       <c r="V335" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W335" s="3" t="s">
-        <v>43</v>
+      <c r="W335" s="3">
+        <v>1</v>
       </c>
       <c r="X335" s="3" t="s">
         <v>43</v>
@@ -35517,8 +35518,8 @@
       <c r="V336" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W336" s="3" t="s">
-        <v>44</v>
+      <c r="W336" s="3">
+        <v>0</v>
       </c>
       <c r="X336" s="3" t="s">
         <v>44</v>
@@ -35621,8 +35622,8 @@
       <c r="V337" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W337" s="3" t="s">
-        <v>43</v>
+      <c r="W337" s="3">
+        <v>1</v>
       </c>
       <c r="X337" s="3" t="s">
         <v>44</v>
@@ -35725,8 +35726,8 @@
       <c r="V338" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W338" s="3" t="s">
-        <v>44</v>
+      <c r="W338" s="3">
+        <v>0</v>
       </c>
       <c r="X338" s="3" t="s">
         <v>44</v>
@@ -35829,8 +35830,8 @@
       <c r="V339" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W339" s="3" t="s">
-        <v>43</v>
+      <c r="W339" s="3">
+        <v>1</v>
       </c>
       <c r="X339" s="3" t="s">
         <v>43</v>
@@ -35933,8 +35934,8 @@
       <c r="V340" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W340" s="3" t="s">
-        <v>43</v>
+      <c r="W340" s="3">
+        <v>1</v>
       </c>
       <c r="X340" s="3" t="s">
         <v>44</v>
@@ -36037,8 +36038,8 @@
       <c r="V341" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W341" s="3" t="s">
-        <v>43</v>
+      <c r="W341" s="3">
+        <v>1</v>
       </c>
       <c r="X341" s="3" t="s">
         <v>44</v>
@@ -36141,8 +36142,8 @@
       <c r="V342" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W342" s="3" t="s">
-        <v>43</v>
+      <c r="W342" s="3">
+        <v>1</v>
       </c>
       <c r="X342" s="3" t="s">
         <v>43</v>
@@ -36245,8 +36246,8 @@
       <c r="V343" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W343" s="3" t="s">
-        <v>43</v>
+      <c r="W343" s="3">
+        <v>1</v>
       </c>
       <c r="X343" s="3" t="s">
         <v>44</v>
@@ -36349,8 +36350,8 @@
       <c r="V344" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W344" s="3" t="s">
-        <v>43</v>
+      <c r="W344" s="3">
+        <v>1</v>
       </c>
       <c r="X344" s="3" t="s">
         <v>43</v>
@@ -36453,8 +36454,8 @@
       <c r="V345" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W345" s="3" t="s">
-        <v>43</v>
+      <c r="W345" s="3">
+        <v>1</v>
       </c>
       <c r="X345" s="3" t="s">
         <v>43</v>
@@ -36557,8 +36558,8 @@
       <c r="V346" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W346" s="3" t="s">
-        <v>43</v>
+      <c r="W346" s="3">
+        <v>1</v>
       </c>
       <c r="X346" s="3" t="s">
         <v>44</v>
@@ -36661,8 +36662,8 @@
       <c r="V347" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W347" s="3" t="s">
-        <v>43</v>
+      <c r="W347" s="3">
+        <v>1</v>
       </c>
       <c r="X347" s="3" t="s">
         <v>43</v>
@@ -36765,8 +36766,8 @@
       <c r="V348" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W348" s="3" t="s">
-        <v>43</v>
+      <c r="W348" s="3">
+        <v>1</v>
       </c>
       <c r="X348" s="3" t="s">
         <v>43</v>
@@ -36869,8 +36870,8 @@
       <c r="V349" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W349" s="3" t="s">
-        <v>43</v>
+      <c r="W349" s="3">
+        <v>1</v>
       </c>
       <c r="X349" s="3" t="s">
         <v>43</v>
@@ -36973,8 +36974,8 @@
       <c r="V350" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W350" s="3" t="s">
-        <v>43</v>
+      <c r="W350" s="3">
+        <v>1</v>
       </c>
       <c r="X350" s="3" t="s">
         <v>43</v>
@@ -37077,8 +37078,8 @@
       <c r="V351" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W351" s="3" t="s">
-        <v>43</v>
+      <c r="W351" s="3">
+        <v>1</v>
       </c>
       <c r="X351" s="3" t="s">
         <v>44</v>
@@ -37181,8 +37182,8 @@
       <c r="V352" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W352" s="3" t="s">
-        <v>43</v>
+      <c r="W352" s="3">
+        <v>1</v>
       </c>
       <c r="X352" s="3" t="s">
         <v>44</v>
@@ -37285,8 +37286,8 @@
       <c r="V353" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W353" s="3" t="s">
-        <v>43</v>
+      <c r="W353" s="3">
+        <v>1</v>
       </c>
       <c r="X353" s="3" t="s">
         <v>44</v>
@@ -37389,8 +37390,8 @@
       <c r="V354" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W354" s="3" t="s">
-        <v>43</v>
+      <c r="W354" s="3">
+        <v>1</v>
       </c>
       <c r="X354" s="3" t="s">
         <v>43</v>
@@ -37493,8 +37494,8 @@
       <c r="V355" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W355" s="3" t="s">
-        <v>43</v>
+      <c r="W355" s="3">
+        <v>1</v>
       </c>
       <c r="X355" s="3" t="s">
         <v>44</v>
@@ -37597,8 +37598,8 @@
       <c r="V356" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W356" s="3" t="s">
-        <v>43</v>
+      <c r="W356" s="3">
+        <v>1</v>
       </c>
       <c r="X356" s="3" t="s">
         <v>43</v>
@@ -37701,8 +37702,8 @@
       <c r="V357" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W357" s="3" t="s">
-        <v>44</v>
+      <c r="W357" s="3">
+        <v>0</v>
       </c>
       <c r="X357" s="3" t="s">
         <v>43</v>
@@ -37805,8 +37806,8 @@
       <c r="V358" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W358" s="3" t="s">
-        <v>43</v>
+      <c r="W358" s="3">
+        <v>1</v>
       </c>
       <c r="X358" s="3" t="s">
         <v>44</v>
@@ -37909,8 +37910,8 @@
       <c r="V359" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W359" s="3" t="s">
-        <v>44</v>
+      <c r="W359" s="3">
+        <v>0</v>
       </c>
       <c r="X359" s="3" t="s">
         <v>43</v>
@@ -38013,8 +38014,8 @@
       <c r="V360" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W360" s="3" t="s">
-        <v>43</v>
+      <c r="W360" s="3">
+        <v>1</v>
       </c>
       <c r="X360" s="3" t="s">
         <v>43</v>
@@ -38117,8 +38118,8 @@
       <c r="V361" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W361" s="3" t="s">
-        <v>43</v>
+      <c r="W361" s="3">
+        <v>1</v>
       </c>
       <c r="X361" s="3" t="s">
         <v>44</v>
@@ -38221,8 +38222,8 @@
       <c r="V362" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W362" s="3" t="s">
-        <v>44</v>
+      <c r="W362" s="3">
+        <v>0</v>
       </c>
       <c r="X362" s="3" t="s">
         <v>43</v>
@@ -38325,8 +38326,8 @@
       <c r="V363" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W363" s="3" t="s">
-        <v>44</v>
+      <c r="W363" s="3">
+        <v>0</v>
       </c>
       <c r="X363" s="3" t="s">
         <v>44</v>
@@ -38429,8 +38430,8 @@
       <c r="V364" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W364" s="3" t="s">
-        <v>43</v>
+      <c r="W364" s="3">
+        <v>1</v>
       </c>
       <c r="X364" s="3" t="s">
         <v>43</v>
@@ -38533,8 +38534,8 @@
       <c r="V365" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W365" s="3" t="s">
-        <v>43</v>
+      <c r="W365" s="3">
+        <v>1</v>
       </c>
       <c r="X365" s="3" t="s">
         <v>43</v>
@@ -38637,8 +38638,8 @@
       <c r="V366" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W366" s="3" t="s">
-        <v>44</v>
+      <c r="W366" s="3">
+        <v>0</v>
       </c>
       <c r="X366" s="3" t="s">
         <v>44</v>
@@ -38741,8 +38742,8 @@
       <c r="V367" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W367" s="3" t="s">
-        <v>44</v>
+      <c r="W367" s="3">
+        <v>0</v>
       </c>
       <c r="X367" s="3" t="s">
         <v>44</v>
@@ -38845,8 +38846,8 @@
       <c r="V368" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W368" s="3" t="s">
-        <v>43</v>
+      <c r="W368" s="3">
+        <v>1</v>
       </c>
       <c r="X368" s="3" t="s">
         <v>43</v>
@@ -38949,8 +38950,8 @@
       <c r="V369" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W369" s="3" t="s">
-        <v>43</v>
+      <c r="W369" s="3">
+        <v>1</v>
       </c>
       <c r="X369" s="3" t="s">
         <v>43</v>
@@ -39053,8 +39054,8 @@
       <c r="V370" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W370" s="3" t="s">
-        <v>43</v>
+      <c r="W370" s="3">
+        <v>1</v>
       </c>
       <c r="X370" s="3" t="s">
         <v>43</v>
@@ -39157,8 +39158,8 @@
       <c r="V371" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W371" s="3" t="s">
-        <v>43</v>
+      <c r="W371" s="3">
+        <v>1</v>
       </c>
       <c r="X371" s="3" t="s">
         <v>43</v>
@@ -39261,8 +39262,8 @@
       <c r="V372" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W372" s="3" t="s">
-        <v>44</v>
+      <c r="W372" s="3">
+        <v>0</v>
       </c>
       <c r="X372" s="3" t="s">
         <v>43</v>
@@ -39365,8 +39366,8 @@
       <c r="V373" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W373" s="3" t="s">
-        <v>43</v>
+      <c r="W373" s="3">
+        <v>1</v>
       </c>
       <c r="X373" s="3" t="s">
         <v>43</v>
@@ -39469,8 +39470,8 @@
       <c r="V374" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W374" s="3" t="s">
-        <v>44</v>
+      <c r="W374" s="3">
+        <v>0</v>
       </c>
       <c r="X374" s="3" t="s">
         <v>43</v>
@@ -39573,8 +39574,8 @@
       <c r="V375" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W375" s="3" t="s">
-        <v>43</v>
+      <c r="W375" s="3">
+        <v>1</v>
       </c>
       <c r="X375" s="3" t="s">
         <v>44</v>
@@ -39677,8 +39678,8 @@
       <c r="V376" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W376" s="3" t="s">
-        <v>43</v>
+      <c r="W376" s="3">
+        <v>1</v>
       </c>
       <c r="X376" s="3" t="s">
         <v>44</v>
@@ -39781,8 +39782,8 @@
       <c r="V377" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W377" s="3" t="s">
-        <v>43</v>
+      <c r="W377" s="3">
+        <v>1</v>
       </c>
       <c r="X377" s="3" t="s">
         <v>44</v>
@@ -39885,8 +39886,8 @@
       <c r="V378" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W378" s="3" t="s">
-        <v>43</v>
+      <c r="W378" s="3">
+        <v>1</v>
       </c>
       <c r="X378" s="3" t="s">
         <v>43</v>
@@ -39989,8 +39990,8 @@
       <c r="V379" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W379" s="3" t="s">
-        <v>43</v>
+      <c r="W379" s="3">
+        <v>1</v>
       </c>
       <c r="X379" s="3" t="s">
         <v>44</v>
@@ -40093,8 +40094,8 @@
       <c r="V380" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W380" s="3" t="s">
-        <v>43</v>
+      <c r="W380" s="3">
+        <v>1</v>
       </c>
       <c r="X380" s="3" t="s">
         <v>43</v>
@@ -40197,8 +40198,8 @@
       <c r="V381" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W381" s="3" t="s">
-        <v>43</v>
+      <c r="W381" s="3">
+        <v>1</v>
       </c>
       <c r="X381" s="3" t="s">
         <v>44</v>
@@ -40301,8 +40302,8 @@
       <c r="V382" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W382" s="3" t="s">
-        <v>43</v>
+      <c r="W382" s="3">
+        <v>1</v>
       </c>
       <c r="X382" s="3" t="s">
         <v>44</v>
@@ -40405,8 +40406,8 @@
       <c r="V383" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W383" s="3" t="s">
-        <v>43</v>
+      <c r="W383" s="3">
+        <v>1</v>
       </c>
       <c r="X383" s="3" t="s">
         <v>43</v>
@@ -40509,8 +40510,8 @@
       <c r="V384" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W384" s="3" t="s">
-        <v>43</v>
+      <c r="W384" s="3">
+        <v>1</v>
       </c>
       <c r="X384" s="3" t="s">
         <v>44</v>
@@ -40613,8 +40614,8 @@
       <c r="V385" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W385" s="3" t="s">
-        <v>44</v>
+      <c r="W385" s="3">
+        <v>0</v>
       </c>
       <c r="X385" s="3" t="s">
         <v>44</v>
@@ -40717,8 +40718,8 @@
       <c r="V386" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W386" s="3" t="s">
-        <v>44</v>
+      <c r="W386" s="3">
+        <v>0</v>
       </c>
       <c r="X386" s="3" t="s">
         <v>44</v>
@@ -40821,8 +40822,8 @@
       <c r="V387" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W387" s="3" t="s">
-        <v>44</v>
+      <c r="W387" s="3">
+        <v>0</v>
       </c>
       <c r="X387" s="3" t="s">
         <v>44</v>
@@ -40925,8 +40926,8 @@
       <c r="V388" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W388" s="3" t="s">
-        <v>43</v>
+      <c r="W388" s="3">
+        <v>1</v>
       </c>
       <c r="X388" s="3" t="s">
         <v>43</v>
@@ -41029,8 +41030,8 @@
       <c r="V389" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W389" s="3" t="s">
-        <v>43</v>
+      <c r="W389" s="3">
+        <v>1</v>
       </c>
       <c r="X389" s="3" t="s">
         <v>44</v>
@@ -41133,8 +41134,8 @@
       <c r="V390" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W390" s="3" t="s">
-        <v>43</v>
+      <c r="W390" s="3">
+        <v>1</v>
       </c>
       <c r="X390" s="3" t="s">
         <v>44</v>
@@ -41237,8 +41238,8 @@
       <c r="V391" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W391" s="3" t="s">
-        <v>44</v>
+      <c r="W391" s="3">
+        <v>0</v>
       </c>
       <c r="X391" s="3" t="s">
         <v>44</v>
@@ -41341,8 +41342,8 @@
       <c r="V392" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W392" s="3" t="s">
-        <v>44</v>
+      <c r="W392" s="3">
+        <v>0</v>
       </c>
       <c r="X392" s="3" t="s">
         <v>44</v>
@@ -41445,8 +41446,8 @@
       <c r="V393" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W393" s="3" t="s">
-        <v>43</v>
+      <c r="W393" s="3">
+        <v>1</v>
       </c>
       <c r="X393" s="3" t="s">
         <v>44</v>
@@ -41549,8 +41550,8 @@
       <c r="V394" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W394" s="3" t="s">
-        <v>44</v>
+      <c r="W394" s="3">
+        <v>0</v>
       </c>
       <c r="X394" s="3" t="s">
         <v>44</v>
@@ -41653,8 +41654,8 @@
       <c r="V395" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W395" s="3" t="s">
-        <v>43</v>
+      <c r="W395" s="3">
+        <v>1</v>
       </c>
       <c r="X395" s="3" t="s">
         <v>44</v>
@@ -41757,8 +41758,8 @@
       <c r="V396" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W396" s="3" t="s">
-        <v>43</v>
+      <c r="W396" s="3">
+        <v>1</v>
       </c>
       <c r="X396" s="3" t="s">
         <v>44</v>
@@ -41866,5 +41867,2004 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A5180A-97F8-484C-A7FF-08720D41BE11}">
+  <dimension ref="A1:A397"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>